--- a/docs/Project Gantt Chart.xlsx
+++ b/docs/Project Gantt Chart.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oos\Documents\NetBeansProjects\Enterprise-Systems-Project\Enterprise-Systems-Project-master\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Willi\Projects\temp\AlphaCab\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C601F8-E9E1-4845-A99F-1BCF9FBC2820}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522D8A7E-DC58-4278-8C37-04DC9C32B1EA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
   <si>
     <t>Task Name</t>
   </si>
@@ -232,9 +232,6 @@
     <t>Implement driver editing</t>
   </si>
   <si>
-    <t>Implement admin editing</t>
-  </si>
-  <si>
     <t>Update SQL</t>
   </si>
   <si>
@@ -296,6 +293,15 @@
   </si>
   <si>
     <t>T34</t>
+  </si>
+  <si>
+    <t>Connor Hill and Tom Vanlaer-McCanna</t>
+  </si>
+  <si>
+    <t>Connor Hill and William Blackie</t>
+  </si>
+  <si>
+    <t>Complete webservice Testing</t>
   </si>
 </sst>
 </file>
@@ -485,7 +491,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -565,31 +571,14 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -601,87 +590,27 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -698,10 +627,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="454545"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FAFAFA"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -992,47 +921,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AW81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="64" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A22" sqref="A22"/>
-      <selection pane="topRight" activeCell="AU57" sqref="AU57"/>
+      <selection pane="topRight" activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.7265625" customWidth="1"/>
+    <col min="2" max="2" width="40.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="30.7265625" customWidth="1"/>
     <col min="5" max="5" width="32" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" customWidth="1"/>
-    <col min="7" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" customWidth="1"/>
-    <col min="14" max="18" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.140625" customWidth="1"/>
-    <col min="21" max="28" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="40" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="41" max="48" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.7265625" customWidth="1"/>
+    <col min="7" max="8" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7265625" customWidth="1"/>
+    <col min="11" max="11" width="14.1796875" customWidth="1"/>
+    <col min="12" max="12" width="14.54296875" customWidth="1"/>
+    <col min="13" max="13" width="12.453125" customWidth="1"/>
+    <col min="14" max="18" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.1796875" customWidth="1"/>
+    <col min="21" max="28" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="31" max="40" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="41" max="48" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="20" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:6" s="20" customFormat="1" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-    </row>
-    <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+    </row>
+    <row r="3" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1042,13 +971,13 @@
       <c r="C3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
@@ -1058,13 +987,13 @@
       <c r="C4" s="1">
         <v>14</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -1074,13 +1003,13 @@
       <c r="C5" s="1">
         <v>14</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
@@ -1090,13 +1019,13 @@
       <c r="C6" s="1">
         <v>14</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -1106,13 +1035,13 @@
       <c r="C7" s="1">
         <v>14</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>12</v>
       </c>
@@ -1122,13 +1051,13 @@
       <c r="C8" s="1">
         <v>14</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
@@ -1138,13 +1067,13 @@
       <c r="C9" s="1">
         <v>14</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>14</v>
       </c>
@@ -1154,13 +1083,13 @@
       <c r="C10" s="1">
         <v>14</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>29</v>
       </c>
@@ -1170,13 +1099,13 @@
       <c r="C11" s="1">
         <v>14</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>36</v>
       </c>
@@ -1186,13 +1115,13 @@
       <c r="C12" s="1">
         <v>1</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>37</v>
       </c>
@@ -1202,13 +1131,13 @@
       <c r="C13" s="1">
         <v>2</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>40</v>
       </c>
@@ -1218,13 +1147,13 @@
       <c r="C14" s="1">
         <v>14</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>41</v>
       </c>
@@ -1234,13 +1163,13 @@
       <c r="C15" s="1">
         <v>14</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>42</v>
       </c>
@@ -1250,13 +1179,13 @@
       <c r="C16" s="1">
         <v>14</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>44</v>
       </c>
@@ -1266,13 +1195,13 @@
       <c r="C17" s="1">
         <v>7</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>45</v>
       </c>
@@ -1282,13 +1211,13 @@
       <c r="C18" s="1">
         <v>14</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>46</v>
       </c>
@@ -1298,13 +1227,13 @@
       <c r="C19" s="1">
         <v>7</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="D19" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>47</v>
       </c>
@@ -1314,13 +1243,13 @@
       <c r="C20" s="1">
         <v>7</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>48</v>
       </c>
@@ -1330,13 +1259,13 @@
       <c r="C21" s="1">
         <v>1</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="35"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E21" s="35"/>
+      <c r="F21" s="36"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>49</v>
       </c>
@@ -1346,11 +1275,13 @@
       <c r="C22" s="1">
         <v>1</v>
       </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="29"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D22" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="35"/>
+      <c r="F22" s="36"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>60</v>
       </c>
@@ -1360,11 +1291,13 @@
       <c r="C23" s="1">
         <v>1</v>
       </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="29"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D23" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="35"/>
+      <c r="F23" s="36"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>61</v>
       </c>
@@ -1374,13 +1307,15 @@
       <c r="C24" s="1">
         <v>7</v>
       </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="29"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D24" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="35"/>
+      <c r="F24" s="36"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>64</v>
@@ -1388,13 +1323,15 @@
       <c r="C25" s="1">
         <v>7</v>
       </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="29"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D25" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="35"/>
+      <c r="F25" s="36"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>65</v>
@@ -1402,13 +1339,15 @@
       <c r="C26" s="1">
         <v>7</v>
       </c>
-      <c r="D26" s="27"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="29"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D26" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="35"/>
+      <c r="F26" s="36"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>66</v>
@@ -1416,13 +1355,15 @@
       <c r="C27" s="1">
         <v>7</v>
       </c>
-      <c r="D27" s="27"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="29"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D27" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="35"/>
+      <c r="F27" s="36"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>67</v>
@@ -1430,148 +1371,168 @@
       <c r="C28" s="1">
         <v>7</v>
       </c>
-      <c r="D28" s="27"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="29"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D28" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="35"/>
+      <c r="F28" s="36"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="C29" s="1">
         <v>7</v>
       </c>
-      <c r="D29" s="27"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="29"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D29" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="35"/>
+      <c r="F29" s="36"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C30" s="1">
         <v>7</v>
       </c>
-      <c r="D30" s="27"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="29"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D30" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="35"/>
+      <c r="F30" s="36"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C31" s="1">
         <v>7</v>
       </c>
-      <c r="D31" s="27"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="29"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D31" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="35"/>
+      <c r="F31" s="36"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C32" s="1">
         <v>7</v>
       </c>
-      <c r="D32" s="27"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="29"/>
-    </row>
-    <row r="33" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="D32" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="35"/>
+      <c r="F32" s="36"/>
+    </row>
+    <row r="33" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C33" s="1">
         <v>7</v>
       </c>
-      <c r="D33" s="27"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="29"/>
-    </row>
-    <row r="34" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="D33" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="35"/>
+      <c r="F33" s="36"/>
+    </row>
+    <row r="34" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C34" s="1">
         <v>7</v>
       </c>
-      <c r="D34" s="27"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="29"/>
-    </row>
-    <row r="35" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="D34" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="35"/>
+      <c r="F34" s="36"/>
+    </row>
+    <row r="35" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C35" s="1">
         <v>7</v>
       </c>
-      <c r="D35" s="27"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="29"/>
-    </row>
-    <row r="36" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="D35" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="35"/>
+      <c r="F35" s="36"/>
+    </row>
+    <row r="36" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C36" s="1">
         <v>2</v>
       </c>
-      <c r="D36" s="27"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="29"/>
-    </row>
-    <row r="37" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="D36" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="35"/>
+      <c r="F36" s="36"/>
+    </row>
+    <row r="37" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C37" s="1">
         <v>1</v>
       </c>
-      <c r="D37" s="27"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="29"/>
-    </row>
-    <row r="38" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="D37" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="35"/>
+      <c r="F37" s="36"/>
+    </row>
+    <row r="38" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A38" s="9"/>
       <c r="B38" s="10"/>
       <c r="C38" s="4"/>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
     </row>
-    <row r="39" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A39" s="9"/>
       <c r="B39" s="10"/>
     </row>
-    <row r="40" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>26</v>
       </c>
@@ -1579,13 +1540,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A41" s="17"/>
       <c r="B41" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="19"/>
       <c r="B42" s="1" t="s">
         <v>25</v>
@@ -1597,7 +1558,7 @@
       <c r="K42" s="21"/>
       <c r="L42" s="21"/>
     </row>
-    <row r="43" spans="1:49" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:49" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>6</v>
       </c>
@@ -1746,7 +1707,7 @@
         <v>43444</v>
       </c>
     </row>
-    <row r="44" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
         <v>1</v>
       </c>
@@ -1809,7 +1770,7 @@
       <c r="AV44" s="1"/>
       <c r="AW44" s="1"/>
     </row>
-    <row r="45" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A45" s="6" t="s">
         <v>3</v>
       </c>
@@ -1872,7 +1833,7 @@
       <c r="AV45" s="1"/>
       <c r="AW45" s="1"/>
     </row>
-    <row r="46" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
         <v>4</v>
       </c>
@@ -1935,7 +1896,7 @@
       <c r="AV46" s="1"/>
       <c r="AW46" s="1"/>
     </row>
-    <row r="47" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
         <v>5</v>
       </c>
@@ -1998,7 +1959,7 @@
       <c r="AV47" s="1"/>
       <c r="AW47" s="1"/>
     </row>
-    <row r="48" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
         <v>12</v>
       </c>
@@ -2061,7 +2022,7 @@
       <c r="AV48" s="1"/>
       <c r="AW48" s="1"/>
     </row>
-    <row r="49" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
         <v>13</v>
       </c>
@@ -2124,7 +2085,7 @@
       <c r="AV49" s="1"/>
       <c r="AW49" s="1"/>
     </row>
-    <row r="50" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
         <v>14</v>
       </c>
@@ -2187,7 +2148,7 @@
       <c r="AV50" s="1"/>
       <c r="AW50" s="1"/>
     </row>
-    <row r="51" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
         <v>29</v>
       </c>
@@ -2250,7 +2211,7 @@
       <c r="AV51" s="1"/>
       <c r="AW51" s="1"/>
     </row>
-    <row r="52" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A52" s="6" t="s">
         <v>36</v>
       </c>
@@ -2313,7 +2274,7 @@
       <c r="AV52" s="1"/>
       <c r="AW52" s="1"/>
     </row>
-    <row r="53" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A53" s="6" t="s">
         <v>37</v>
       </c>
@@ -2376,7 +2337,7 @@
       <c r="AV53" s="1"/>
       <c r="AW53" s="1"/>
     </row>
-    <row r="54" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
         <v>40</v>
       </c>
@@ -2439,7 +2400,7 @@
       <c r="AV54" s="1"/>
       <c r="AW54" s="1"/>
     </row>
-    <row r="55" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
         <v>41</v>
       </c>
@@ -2472,9 +2433,9 @@
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
-      <c r="U55" s="30"/>
-      <c r="V55" s="30"/>
-      <c r="W55" s="30"/>
+      <c r="U55" s="27"/>
+      <c r="V55" s="27"/>
+      <c r="W55" s="27"/>
       <c r="X55" s="17"/>
       <c r="Y55" s="17"/>
       <c r="Z55" s="19"/>
@@ -2502,7 +2463,7 @@
       <c r="AV55" s="1"/>
       <c r="AW55" s="1"/>
     </row>
-    <row r="56" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
         <v>42</v>
       </c>
@@ -2565,7 +2526,7 @@
       <c r="AV56" s="1"/>
       <c r="AW56" s="1"/>
     </row>
-    <row r="57" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A57" s="6" t="s">
         <v>44</v>
       </c>
@@ -2628,7 +2589,7 @@
       <c r="AV57" s="1"/>
       <c r="AW57" s="1"/>
     </row>
-    <row r="58" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A58" s="6" t="s">
         <v>45</v>
       </c>
@@ -2663,7 +2624,7 @@
       <c r="T58" s="1"/>
       <c r="U58" s="18"/>
       <c r="V58" s="18"/>
-      <c r="W58" s="30"/>
+      <c r="W58" s="27"/>
       <c r="X58" s="18"/>
       <c r="Y58" s="18"/>
       <c r="Z58" s="18"/>
@@ -2691,7 +2652,7 @@
       <c r="AV58" s="1"/>
       <c r="AW58" s="1"/>
     </row>
-    <row r="59" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A59" s="6" t="s">
         <v>46</v>
       </c>
@@ -2754,7 +2715,7 @@
       <c r="AV59" s="1"/>
       <c r="AW59" s="1"/>
     </row>
-    <row r="60" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A60" s="6" t="s">
         <v>47</v>
       </c>
@@ -2817,7 +2778,7 @@
       <c r="AV60" s="1"/>
       <c r="AW60" s="1"/>
     </row>
-    <row r="61" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A61" s="6" t="s">
         <v>48</v>
       </c>
@@ -2850,7 +2811,7 @@
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
-      <c r="U61" s="31"/>
+      <c r="U61" s="28"/>
       <c r="V61" s="19"/>
       <c r="W61" s="19"/>
       <c r="X61" s="19"/>
@@ -2880,7 +2841,7 @@
       <c r="AV61" s="1"/>
       <c r="AW61" s="1"/>
     </row>
-    <row r="62" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A62" s="6" t="s">
         <v>49</v>
       </c>
@@ -2928,22 +2889,22 @@
       <c r="AG62" s="15"/>
       <c r="AH62" s="15"/>
       <c r="AI62" s="17"/>
-      <c r="AJ62" s="15"/>
-      <c r="AK62" s="15"/>
-      <c r="AL62" s="15"/>
-      <c r="AM62" s="15"/>
-      <c r="AN62" s="15"/>
-      <c r="AO62" s="15"/>
-      <c r="AP62" s="15"/>
-      <c r="AQ62" s="15"/>
-      <c r="AR62" s="15"/>
-      <c r="AS62" s="15"/>
+      <c r="AJ62" s="19"/>
+      <c r="AK62" s="19"/>
+      <c r="AL62" s="19"/>
+      <c r="AM62" s="19"/>
+      <c r="AN62" s="19"/>
+      <c r="AO62" s="19"/>
+      <c r="AP62" s="19"/>
+      <c r="AQ62" s="19"/>
+      <c r="AR62" s="19"/>
+      <c r="AS62" s="19"/>
       <c r="AT62" s="1"/>
       <c r="AU62" s="1"/>
       <c r="AV62" s="1"/>
       <c r="AW62" s="1"/>
     </row>
-    <row r="63" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
         <v>60</v>
       </c>
@@ -2991,22 +2952,22 @@
       <c r="AG63" s="15"/>
       <c r="AH63" s="15"/>
       <c r="AI63" s="17"/>
-      <c r="AJ63" s="15"/>
-      <c r="AK63" s="15"/>
-      <c r="AL63" s="15"/>
-      <c r="AM63" s="15"/>
-      <c r="AN63" s="15"/>
-      <c r="AO63" s="15"/>
-      <c r="AP63" s="15"/>
-      <c r="AQ63" s="15"/>
-      <c r="AR63" s="15"/>
-      <c r="AS63" s="15"/>
+      <c r="AJ63" s="19"/>
+      <c r="AK63" s="19"/>
+      <c r="AL63" s="19"/>
+      <c r="AM63" s="19"/>
+      <c r="AN63" s="19"/>
+      <c r="AO63" s="19"/>
+      <c r="AP63" s="19"/>
+      <c r="AQ63" s="19"/>
+      <c r="AR63" s="19"/>
+      <c r="AS63" s="19"/>
       <c r="AT63" s="1"/>
       <c r="AU63" s="1"/>
       <c r="AV63" s="1"/>
       <c r="AW63" s="1"/>
     </row>
-    <row r="64" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A64" s="6" t="s">
         <v>61</v>
       </c>
@@ -3014,13 +2975,13 @@
         <v>43430</v>
       </c>
       <c r="C64" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D64" s="23">
         <v>43430</v>
       </c>
       <c r="E64" s="1">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F64" s="24">
         <v>1</v>
@@ -3069,21 +3030,21 @@
       <c r="AV64" s="1"/>
       <c r="AW64" s="1"/>
     </row>
-    <row r="65" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A65" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B65" s="23">
         <v>43430</v>
       </c>
       <c r="C65" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D65" s="23">
         <v>43430</v>
       </c>
       <c r="E65" s="1">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F65" s="24">
         <v>1</v>
@@ -3132,21 +3093,21 @@
       <c r="AV65" s="1"/>
       <c r="AW65" s="1"/>
     </row>
-    <row r="66" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A66" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B66" s="23">
         <v>43430</v>
       </c>
       <c r="C66" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D66" s="23">
         <v>43430</v>
       </c>
       <c r="E66" s="1">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F66" s="24">
         <v>1</v>
@@ -3195,21 +3156,21 @@
       <c r="AV66" s="1"/>
       <c r="AW66" s="1"/>
     </row>
-    <row r="67" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A67" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B67" s="23">
         <v>43430</v>
       </c>
       <c r="C67" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D67" s="23">
         <v>43430</v>
       </c>
       <c r="E67" s="1">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F67" s="24">
         <v>1</v>
@@ -3258,9 +3219,9 @@
       <c r="AV67" s="1"/>
       <c r="AW67" s="1"/>
     </row>
-    <row r="68" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A68" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B68" s="23">
         <v>43430</v>
@@ -3272,7 +3233,7 @@
         <v>43430</v>
       </c>
       <c r="E68" s="1">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F68" s="24">
         <v>1</v>
@@ -3321,21 +3282,21 @@
       <c r="AV68" s="1"/>
       <c r="AW68" s="1"/>
     </row>
-    <row r="69" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A69" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B69" s="23">
         <v>43430</v>
       </c>
       <c r="C69" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D69" s="23">
         <v>43430</v>
       </c>
       <c r="E69" s="1">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F69" s="24">
         <v>1</v>
@@ -3384,21 +3345,21 @@
       <c r="AV69" s="1"/>
       <c r="AW69" s="1"/>
     </row>
-    <row r="70" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A70" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B70" s="23">
         <v>43430</v>
       </c>
       <c r="C70" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D70" s="23">
         <v>43430</v>
       </c>
       <c r="E70" s="1">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F70" s="24">
         <v>1</v>
@@ -3447,21 +3408,21 @@
       <c r="AV70" s="1"/>
       <c r="AW70" s="1"/>
     </row>
-    <row r="71" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A71" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B71" s="23">
         <v>43430</v>
       </c>
       <c r="C71" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D71" s="23">
         <v>43430</v>
       </c>
       <c r="E71" s="1">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F71" s="24">
         <v>1</v>
@@ -3510,21 +3471,21 @@
       <c r="AV71" s="1"/>
       <c r="AW71" s="1"/>
     </row>
-    <row r="72" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A72" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B72" s="23">
         <v>43430</v>
       </c>
       <c r="C72" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D72" s="23">
         <v>43430</v>
       </c>
       <c r="E72" s="1">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F72" s="24">
         <v>1</v>
@@ -3573,21 +3534,21 @@
       <c r="AV72" s="1"/>
       <c r="AW72" s="1"/>
     </row>
-    <row r="73" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A73" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B73" s="23">
         <v>43430</v>
       </c>
       <c r="C73" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D73" s="23">
         <v>43430</v>
       </c>
       <c r="E73" s="1">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F73" s="24">
         <v>1</v>
@@ -3636,21 +3597,21 @@
       <c r="AV73" s="1"/>
       <c r="AW73" s="1"/>
     </row>
-    <row r="74" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A74" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B74" s="23">
         <v>43430</v>
       </c>
       <c r="C74" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D74" s="23">
         <v>43430</v>
       </c>
       <c r="E74" s="1">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F74" s="24">
         <v>1</v>
@@ -3699,21 +3660,21 @@
       <c r="AV74" s="1"/>
       <c r="AW74" s="1"/>
     </row>
-    <row r="75" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A75" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B75" s="23">
         <v>43430</v>
       </c>
       <c r="C75" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D75" s="23">
         <v>43430</v>
       </c>
       <c r="E75" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="F75" s="24">
         <v>1</v>
@@ -3762,21 +3723,21 @@
       <c r="AV75" s="1"/>
       <c r="AW75" s="1"/>
     </row>
-    <row r="76" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A76" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B76" s="23">
-        <v>43437</v>
+        <v>43463</v>
       </c>
       <c r="C76" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D76" s="23">
-        <v>43437</v>
+        <v>43463</v>
       </c>
       <c r="E76" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F76" s="24">
         <v>1</v>
@@ -3809,25 +3770,25 @@
       <c r="AF76" s="15"/>
       <c r="AG76" s="15"/>
       <c r="AH76" s="15"/>
-      <c r="AI76" s="15"/>
-      <c r="AJ76" s="15"/>
-      <c r="AK76" s="15"/>
-      <c r="AL76" s="15"/>
-      <c r="AM76" s="15"/>
-      <c r="AN76" s="15"/>
-      <c r="AO76" s="15"/>
+      <c r="AI76" s="19"/>
+      <c r="AJ76" s="19"/>
+      <c r="AK76" s="19"/>
+      <c r="AL76" s="19"/>
+      <c r="AM76" s="19"/>
+      <c r="AN76" s="19"/>
+      <c r="AO76" s="19"/>
       <c r="AP76" s="17"/>
       <c r="AQ76" s="17"/>
-      <c r="AR76" s="15"/>
-      <c r="AS76" s="15"/>
+      <c r="AR76" s="19"/>
+      <c r="AS76" s="19"/>
       <c r="AT76" s="1"/>
       <c r="AU76" s="1"/>
       <c r="AV76" s="1"/>
       <c r="AW76" s="1"/>
     </row>
-    <row r="77" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:49" x14ac:dyDescent="0.35">
       <c r="A77" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B77" s="23">
         <v>43439</v>
@@ -3872,123 +3833,139 @@
       <c r="AF77" s="15"/>
       <c r="AG77" s="15"/>
       <c r="AH77" s="15"/>
-      <c r="AI77" s="15"/>
-      <c r="AJ77" s="15"/>
-      <c r="AK77" s="15"/>
-      <c r="AL77" s="15"/>
-      <c r="AM77" s="15"/>
-      <c r="AN77" s="15"/>
-      <c r="AO77" s="15"/>
-      <c r="AP77" s="15"/>
-      <c r="AQ77" s="15"/>
+      <c r="AI77" s="19"/>
+      <c r="AJ77" s="19"/>
+      <c r="AK77" s="19"/>
+      <c r="AL77" s="19"/>
+      <c r="AM77" s="19"/>
+      <c r="AN77" s="19"/>
+      <c r="AO77" s="19"/>
+      <c r="AP77" s="19"/>
+      <c r="AQ77" s="19"/>
       <c r="AR77" s="17"/>
-      <c r="AS77" s="15"/>
+      <c r="AS77" s="19"/>
       <c r="AT77" s="15"/>
       <c r="AU77" s="1"/>
       <c r="AV77" s="1"/>
       <c r="AW77" s="1"/>
     </row>
-    <row r="78" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="T78" s="41"/>
-      <c r="U78" s="41"/>
-      <c r="V78" s="41"/>
-      <c r="W78" s="41"/>
-      <c r="X78" s="41"/>
-      <c r="Y78" s="41"/>
-      <c r="Z78" s="41"/>
-      <c r="AA78" s="41"/>
-      <c r="AB78" s="41"/>
-      <c r="AC78" s="41"/>
-      <c r="AD78" s="41"/>
-      <c r="AE78" s="41"/>
-      <c r="AF78" s="41"/>
-      <c r="AG78" s="41"/>
-      <c r="AH78" s="41"/>
-      <c r="AI78" s="41"/>
-      <c r="AO78" s="41"/>
-      <c r="AP78" s="41"/>
-      <c r="AQ78" s="41"/>
-      <c r="AS78" s="41"/>
-      <c r="AT78" s="41"/>
-    </row>
-    <row r="79" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="T79" s="41"/>
-      <c r="U79" s="41"/>
-      <c r="V79" s="41"/>
-      <c r="W79" s="41"/>
-      <c r="X79" s="41"/>
-      <c r="Y79" s="41"/>
-      <c r="Z79" s="41"/>
-      <c r="AA79" s="41"/>
-      <c r="AB79" s="41"/>
-      <c r="AC79" s="41"/>
-      <c r="AD79" s="41"/>
-      <c r="AE79" s="41"/>
-      <c r="AF79" s="41"/>
-      <c r="AG79" s="41"/>
-      <c r="AH79" s="41"/>
-      <c r="AI79" s="41"/>
-      <c r="AS79" s="41"/>
-      <c r="AT79" s="41"/>
-    </row>
-    <row r="80" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="T80" s="41"/>
-      <c r="U80" s="41"/>
-      <c r="V80" s="41"/>
-      <c r="W80" s="41"/>
-      <c r="X80" s="41"/>
-      <c r="Y80" s="41"/>
-      <c r="Z80" s="41"/>
-      <c r="AA80" s="41"/>
-      <c r="AB80" s="41"/>
-      <c r="AC80" s="41"/>
-      <c r="AD80" s="41"/>
-      <c r="AE80" s="41"/>
-      <c r="AF80" s="41"/>
-      <c r="AG80" s="41"/>
-      <c r="AH80" s="41"/>
-      <c r="AI80" s="41"/>
-    </row>
-    <row r="81" spans="20:35" x14ac:dyDescent="0.25">
-      <c r="T81" s="41"/>
-      <c r="U81" s="41"/>
-      <c r="V81" s="41"/>
-      <c r="W81" s="41"/>
-      <c r="X81" s="41"/>
-      <c r="Y81" s="41"/>
-      <c r="Z81" s="41"/>
-      <c r="AA81" s="41"/>
-      <c r="AB81" s="41"/>
-      <c r="AC81" s="41"/>
-      <c r="AD81" s="41"/>
-      <c r="AE81" s="41"/>
-      <c r="AF81" s="41"/>
-      <c r="AG81" s="41"/>
-      <c r="AH81" s="41"/>
-      <c r="AI81" s="41"/>
+    <row r="78" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="T78" s="29"/>
+      <c r="U78" s="29"/>
+      <c r="V78" s="29"/>
+      <c r="W78" s="29"/>
+      <c r="X78" s="29"/>
+      <c r="Y78" s="29"/>
+      <c r="Z78" s="29"/>
+      <c r="AA78" s="29"/>
+      <c r="AB78" s="29"/>
+      <c r="AC78" s="29"/>
+      <c r="AD78" s="29"/>
+      <c r="AE78" s="29"/>
+      <c r="AF78" s="29"/>
+      <c r="AG78" s="29"/>
+      <c r="AH78" s="29"/>
+      <c r="AI78" s="29"/>
+      <c r="AO78" s="29"/>
+      <c r="AP78" s="29"/>
+      <c r="AQ78" s="29"/>
+      <c r="AS78" s="29"/>
+      <c r="AT78" s="29"/>
+    </row>
+    <row r="79" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="T79" s="29"/>
+      <c r="U79" s="29"/>
+      <c r="V79" s="29"/>
+      <c r="W79" s="29"/>
+      <c r="X79" s="29"/>
+      <c r="Y79" s="29"/>
+      <c r="Z79" s="29"/>
+      <c r="AA79" s="29"/>
+      <c r="AB79" s="29"/>
+      <c r="AC79" s="29"/>
+      <c r="AD79" s="29"/>
+      <c r="AE79" s="29"/>
+      <c r="AF79" s="29"/>
+      <c r="AG79" s="29"/>
+      <c r="AH79" s="29"/>
+      <c r="AI79" s="29"/>
+      <c r="AS79" s="29"/>
+      <c r="AT79" s="29"/>
+    </row>
+    <row r="80" spans="1:49" x14ac:dyDescent="0.35">
+      <c r="T80" s="29"/>
+      <c r="U80" s="29"/>
+      <c r="V80" s="29"/>
+      <c r="W80" s="29"/>
+      <c r="X80" s="29"/>
+      <c r="Y80" s="29"/>
+      <c r="Z80" s="29"/>
+      <c r="AA80" s="29"/>
+      <c r="AB80" s="29"/>
+      <c r="AC80" s="29"/>
+      <c r="AD80" s="29"/>
+      <c r="AE80" s="29"/>
+      <c r="AF80" s="29"/>
+      <c r="AG80" s="29"/>
+      <c r="AH80" s="29"/>
+      <c r="AI80" s="29"/>
+    </row>
+    <row r="81" spans="20:35" x14ac:dyDescent="0.35">
+      <c r="T81" s="29"/>
+      <c r="U81" s="29"/>
+      <c r="V81" s="29"/>
+      <c r="W81" s="29"/>
+      <c r="X81" s="29"/>
+      <c r="Y81" s="29"/>
+      <c r="Z81" s="29"/>
+      <c r="AA81" s="29"/>
+      <c r="AB81" s="29"/>
+      <c r="AC81" s="29"/>
+      <c r="AD81" s="29"/>
+      <c r="AE81" s="29"/>
+      <c r="AF81" s="29"/>
+      <c r="AG81" s="29"/>
+      <c r="AH81" s="29"/>
+      <c r="AI81" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="36">
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="D18:F18"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
@@ -4003,14 +3980,14 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="43.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="7" max="7" width="31.28515625" customWidth="1"/>
+    <col min="2" max="2" width="43.26953125" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" customWidth="1"/>
+    <col min="7" max="7" width="31.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>2</v>
       </c>
@@ -4020,10 +3997,10 @@
       <c r="C1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="40"/>
+      <c r="E1" s="38"/>
       <c r="F1" s="13" t="s">
         <v>2</v>
       </c>
@@ -4033,10 +4010,10 @@
       <c r="H1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="40"/>
+      <c r="J1" s="38"/>
       <c r="K1" s="13" t="s">
         <v>2</v>
       </c>
@@ -4046,12 +4023,12 @@
       <c r="M1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="40" t="s">
+      <c r="N1" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="40"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O1" s="38"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -4061,10 +4038,10 @@
       <c r="C2" s="1">
         <v>2</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="39"/>
+      <c r="E2" s="37"/>
       <c r="F2" s="6" t="s">
         <v>1</v>
       </c>
@@ -4074,10 +4051,10 @@
       <c r="H2" s="1">
         <v>2</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="39"/>
+      <c r="J2" s="37"/>
       <c r="K2" s="6" t="s">
         <v>1</v>
       </c>
@@ -4087,12 +4064,12 @@
       <c r="M2" s="1">
         <v>2</v>
       </c>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="39"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O2" s="37"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -4102,10 +4079,10 @@
       <c r="C3" s="1">
         <v>2</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="39"/>
+      <c r="E3" s="37"/>
       <c r="F3" s="6" t="s">
         <v>3</v>
       </c>
@@ -4115,10 +4092,10 @@
       <c r="H3" s="1">
         <v>2</v>
       </c>
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="39"/>
+      <c r="J3" s="37"/>
       <c r="K3" s="6" t="s">
         <v>3</v>
       </c>
@@ -4128,12 +4105,12 @@
       <c r="M3" s="1">
         <v>2</v>
       </c>
-      <c r="N3" s="39" t="s">
+      <c r="N3" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="O3" s="39"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O3" s="37"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
@@ -4143,10 +4120,10 @@
       <c r="C4" s="1">
         <v>2</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="39"/>
+      <c r="E4" s="37"/>
       <c r="F4" s="6" t="s">
         <v>4</v>
       </c>
@@ -4156,10 +4133,10 @@
       <c r="H4" s="1">
         <v>2</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="I4" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="39"/>
+      <c r="J4" s="37"/>
       <c r="K4" s="6" t="s">
         <v>4</v>
       </c>
@@ -4169,12 +4146,12 @@
       <c r="M4" s="1">
         <v>2</v>
       </c>
-      <c r="N4" s="39" t="s">
+      <c r="N4" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="39"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O4" s="37"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
@@ -4184,10 +4161,10 @@
       <c r="C5" s="1">
         <v>2</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="39"/>
+      <c r="E5" s="37"/>
       <c r="F5" s="6" t="s">
         <v>5</v>
       </c>
@@ -4197,10 +4174,10 @@
       <c r="H5" s="1">
         <v>2</v>
       </c>
-      <c r="I5" s="39" t="s">
+      <c r="I5" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="39"/>
+      <c r="J5" s="37"/>
       <c r="K5" s="6" t="s">
         <v>5</v>
       </c>
@@ -4210,12 +4187,12 @@
       <c r="M5" s="1">
         <v>2</v>
       </c>
-      <c r="N5" s="39" t="s">
+      <c r="N5" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="O5" s="39"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O5" s="37"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
@@ -4225,10 +4202,10 @@
       <c r="C6" s="1">
         <v>2</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="39"/>
+      <c r="E6" s="37"/>
       <c r="F6" s="6" t="s">
         <v>12</v>
       </c>
@@ -4238,10 +4215,10 @@
       <c r="H6" s="1">
         <v>2</v>
       </c>
-      <c r="I6" s="39" t="s">
+      <c r="I6" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="39"/>
+      <c r="J6" s="37"/>
       <c r="K6" s="6" t="s">
         <v>12</v>
       </c>
@@ -4251,12 +4228,12 @@
       <c r="M6" s="1">
         <v>2</v>
       </c>
-      <c r="N6" s="39" t="s">
+      <c r="N6" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="O6" s="39"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O6" s="37"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -4266,10 +4243,10 @@
       <c r="C7" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="39"/>
+      <c r="E7" s="37"/>
       <c r="F7" s="6" t="s">
         <v>13</v>
       </c>
@@ -4279,10 +4256,10 @@
       <c r="H7" s="1">
         <v>2</v>
       </c>
-      <c r="I7" s="39" t="s">
+      <c r="I7" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="39"/>
+      <c r="J7" s="37"/>
       <c r="K7" s="6" t="s">
         <v>13</v>
       </c>
@@ -4292,12 +4269,12 @@
       <c r="M7" s="1">
         <v>2</v>
       </c>
-      <c r="N7" s="39" t="s">
+      <c r="N7" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="39"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O7" s="37"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
@@ -4307,10 +4284,10 @@
       <c r="C8" s="1">
         <v>2</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="39"/>
+      <c r="E8" s="37"/>
       <c r="F8" s="6" t="s">
         <v>14</v>
       </c>
@@ -4320,10 +4297,10 @@
       <c r="H8" s="1">
         <v>2</v>
       </c>
-      <c r="I8" s="39" t="s">
+      <c r="I8" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="39"/>
+      <c r="J8" s="37"/>
       <c r="K8" s="6" t="s">
         <v>14</v>
       </c>
@@ -4333,12 +4310,12 @@
       <c r="M8" s="1">
         <v>2</v>
       </c>
-      <c r="N8" s="39" t="s">
+      <c r="N8" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="O8" s="39"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O8" s="37"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>29</v>
       </c>
@@ -4348,10 +4325,10 @@
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="39"/>
+      <c r="E9" s="37"/>
       <c r="F9" s="6" t="s">
         <v>29</v>
       </c>
@@ -4361,10 +4338,10 @@
       <c r="H9" s="1">
         <v>1</v>
       </c>
-      <c r="I9" s="39" t="s">
+      <c r="I9" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="39"/>
+      <c r="J9" s="37"/>
       <c r="K9" s="6" t="s">
         <v>29</v>
       </c>
@@ -4374,24 +4351,13 @@
       <c r="M9" s="1">
         <v>1</v>
       </c>
-      <c r="N9" s="39" t="s">
+      <c r="N9" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="O9" s="39"/>
+      <c r="O9" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="N7:O7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D9:E9"/>
@@ -4408,6 +4374,17 @@
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D6:E6"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="N7:O7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
